--- a/datos/femicidios_2024.xlsx
+++ b/datos/femicidios_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX9"/>
+  <dimension ref="A1:AX32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1580,7 +1580,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ari Salgado</t>
+          <t>Ari Salgado Arango</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1901,106 +1901,2976 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Karina del Valle Montaval</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Venezolana</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Medios no informan sobre el suceso, pero se encuentra en el registro de Sernameg</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2024-03-08</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>La Florida</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>MEDIOS NO INFORMAN</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Kissinver Pacheco Valenzuela</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
         <is>
           <t>33.0</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Chilena</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Mujer cae del décimo piso de un edificio. Se constatan lesiones previas al hecho, por lo que se investiga femicidio o suicidio femicida</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Mujer es golpeada y empujada desde el décimo piso del edificio en que vivía</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>Golpes</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>Sin información</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Conviviente</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Suicidio femicida</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>Fernando</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Fernando Pereira Pérez</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>Chileno</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>Familiares declaran historial de violencia en la pareja, que se corrobora con pericias. La mujer habia denunciado días previos al suceso</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Familiares declaran historial de violencia en la pareja. La mujer habia denunciado por VIF en 4 ocasiones</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
         <is>
           <t>Denuncia</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Suicidio femicida</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
         <is>
           <t>En curso</t>
         </is>
       </c>
-      <c r="AB9" t="inlineStr">
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>45364.0</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
         <is>
           <t>14° Juzgado de Garantía de La Florida</t>
         </is>
       </c>
-      <c r="AG9" t="inlineStr">
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Francisco Morales</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
         <is>
           <t>https://www.24horas.cl/actualidad/nacional/suicidio-femicida-ordenan-detencion-pareja-mujer-que-murio-tras-caer-de-un-piso-10-la-florida</t>
         </is>
       </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>https://www.pagina7.cl/noticias/actualidad/2024/03/08/mujer-murio-tras-caer-de-un-decimo-piso-en-la-florida-brutal-relato-familiar-apunta-a-su-pareja</t>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>https://www.latercera.com/nacional/noticia/dictan-prision-preventiva-contra-hombre-investigado-por-femicidio-en-la-florida/I4OSYYJIM5G3ZIXPPGNMT3IJ5Y/</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>Golpes y arma blanca</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Inglesa</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Ingles</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Lebu</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Bio Bio</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>María Carrillo Sotoki</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>En el domicilio que ambos compartían, mujer es asesinada a los golpes por su pareja. Luego, él se suicida por ahorcamiento</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Golpes</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Conviviente</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Enrique Cuevas Rodríguez</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>Sobreseída</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>45362.0</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>Deceso</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-del-bio-bio/2024/03/10/primer-femicidio-del-ano-en-region-del-bio-bio-adulto-mayor-asesino-a-su-esposa-y-despues-se-suicido.shtml</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>https://www.canal9.cl/programas/noticias/2024/03/11/lebu-sigue-conmocionada-tras-el-femicidio-de-una-mujer-de-72-anos.shtml</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>Bio Bio</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>Antuco</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>Golpes y asfixia</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Brasileña</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Brasileño</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-03-22</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Talca</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Paola Cofré Arellano</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Es asesinada con golpe de martillo por su pareja, en el domicilio que ambos compartían. El agresor denuncia el hecho a Carabineros.</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Objeto contundente</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Conviviente</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Luis Orlando Salas Castro</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>45374.0</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>https://cooperativa.cl/noticias/pais/policial/femicidio/pdi-investiga-presunto-femicidio-en-talca-pareja-de-la-victima-esta/2024-03-22/103336.html</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>https://www.24horas.cl/regiones/zona-centro/maule/haremos-justicia-hija-femicidio-talca</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>45374.0</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>Arauco</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>Hacha</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Boliviana</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Boliviano</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-03-30</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Maipú</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Solange Argomedo Ramírez</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Vecinas/os denuncian que, durante la madrugada, vieron al femicida, junto a sus padres, en un intento de trasladar el cuerpo de la víctima para ocultarlo. Los tres fueron formalizados.</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Indeterminada</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Conviviente</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Rolando Rojas Vergara</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>No hay denuncia, pero vecinas/os confirman que el femicida ejercía violencia con frecuencia en contra de la mujer. Además, tiene condena por desacato de medida cautelar en contexto de VIF (2018)</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>45383.0</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-metropolitana/2024/03/30/mujer-fue-encontrada-muerta-en-su-domicilio-en-maipu-pdi-investiga-posible-femicidio.shtml</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>https://www.diarioelcentro.cl/2024/04/02/femicidio-en-maipu-conviviente-de-la-victima-y-sus-padres-fueron-formalizados/</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>Los Ríos</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>Arica</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>Incendio</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Paraguaya</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Paraguayo</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Alto Hospicio</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Tarapacá</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Medios no informan</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>El femicidio habría ocurrido en la toma Porvenir, luego de que la victima compartiera con un grupo de personas en una vivienda. Se produjo un altercado donde un sujeto ataco con un arma, causandole la muerte y dejando herido a su acompañante. No hay detenido hasta el momento.</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Arma blanca</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Medios no informan</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Silvana Sierra (s)</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>https://www.latercera.com/nacional/noticia/investigan-femicidio-por-motivos-de-indole-sentimental-tras-hallazgo-de-cadaver-de-mujer-herida-a-bala-en-alto-hospicio/BWMMXKHTZBGWPKPFO4OTXU7BCE/#</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>https://www.adnradio.cl/2024/03/31/investigan-posible-femicidio-en-alto-hospicio-encuentran-ecuerpo-de-una-muejr-con-una-herida-en-la-cabeza/</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>Aysén</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>Indeterminada</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-03-31</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovalle</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Paulina Alejandra Cáceres Espinoza</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Adolescente recibe disparo de bala en la cabeza por parte de su pololo. Es llevada al hospital local, donde fallece al día siguiente.</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Arma de fuego</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Pololo</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>L.M.P.V.</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Tenencia ilegal de arma de fuego; Tenencia ilegal de arma a fogueo adaptada; Tenencia ilegal de municiones; Microtrafico</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>45386.0</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Juzgado de Garantía de Ovalle</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>https://www.diarioeldia.cl/noticias/2024/04/04/119596-formalizado-por-femicidio-menor-queda-en-internacion-provisoria-por-disparo-a-pareja-en-ovalle</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>45021.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-04-10</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovalle</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Evelyn Quinzacara Alvarado</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Fue atacada en el campamento Chile Nuevo en Antogafasta y ocultó su cuerpo por tres días para luego dejarlo en el norte costero, donde fue encontrado por terceros.</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Golpes</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Conviviente</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Medios no informan</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>45411.0</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Juan Castro Bekios</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-de-antofagasta/2024/05/10/detienen-a-acusado-de-homicidio-de-mujer-en-antofagasta-cuerpo-fue-encontrado-envuelto-en-frazadas.shtml</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>45441.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Melipilla</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Nelly Quispe Tamargo</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Boliviana</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Mujer es asfixiada con una bolsa por su pareja, en la pieza donde vivían. El femicida oculta su cuerpo bajo la cama y se da a la fuga dos días después. Residentes del cité denuncian el hecho tras encontrar a la víctima en la habitación</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Asfixia</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Conviviente</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Efraín Martínez Fabrica</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Boliviano</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>45404.0</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>Juzgado de Garantía de Melipilla</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>1072-2024</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>https://www.latercera.com/nacional/noticia/decretan-prision-preventiva-para-presunto-autor-de-femicidio-de-mujer-en-cite-de-melipilla/QZUUAOUPSNALDINYFVSMPR56EY/</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>https://www.emol.com/noticias/Nacional/2024/04/21/1128521/pdi-femicidio-melipilla.html</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>Magallanes</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>Bulnes</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>Objeto contundente y asfixia</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-04-13</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Arica</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Arica y Parinacota</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Laura Valentina Mendonza Araujo</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Venezolana</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Su cuerpo fue encontrado dentro de un auto abandonado en un sector del Cerro Chuño, presentaba impactos de bala y se sispecha de su pareja. Se desconoce el nombre del femicida pero es conocido como "el guayo"</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Arma blanca</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Medios no informan</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>45441.0</t>
+        </is>
+      </c>
+      <c r="AG18" t="inlineStr">
+        <is>
+          <t>https://eldiario.com/2024/05/13/fiscalia-chile-investiga-feminicidio-venezolana/</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>45441.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-04-22</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Valparaíso</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Valparaíso</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Daniela Trinidad Silva Álvarez</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Fue encontrado el cuerpo de la mujer en el patio de su casa, habría sido apuñalada por pareja con la que llevaba un año. Su hija de 14 años fue testigo y pidio ayuda. El femicida se suicido posteriormente.</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Arma blanca</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Medios no informan</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>Sobreseída</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>45404.0</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>Deceso</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>Juzgado de Garantía de Valparaíso</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Lorena Ulloa</t>
+        </is>
+      </c>
+      <c r="AG19" t="inlineStr">
+        <is>
+          <t>https://www.cooperativa.cl/noticias/pais/region-de-valparaiso/investigan-femicidio-y-suicidio-en-valparaiso-mujer-fue-asesinada/2024-04-22/211455.html</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>45407.0</t>
+        </is>
+      </c>
+      <c r="AL19" t="inlineStr">
+        <is>
+          <t>Tarapacá</t>
+        </is>
+      </c>
+      <c r="AM19" t="inlineStr">
+        <is>
+          <t>Cabildo</t>
+        </is>
+      </c>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>Secuelas de ataque sexual y golpes</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-04-23</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Pozo Almonte</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Tarapacá</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Catalina Herrera Barra</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Asesinada a puñaladas por su pareja mientras viajaban hacia La Huayca. El agresor abandona su cuerpo en el camino. Intenta encubrir el femicidio como atropello, finalmente confiesa.</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Arma blanca</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>K.A.A.M.</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>El agresor cuenta con condenas previas</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>45406.0</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>Juzgado de Garantía de Pozo Almonte</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Silvana Sierra</t>
+        </is>
+      </c>
+      <c r="AG20" t="inlineStr">
+        <is>
+          <t>https://cooperativa.cl/noticias/pais/policial/femicidio/hombre-confeso-femicidio-luego-que-su-coartada-fuera-100-desvirtuada/2024-04-24/103834.html</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>45441.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2024-04-28</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Osorno</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Gabriela Flores Bustamante</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Trabajadora en pub</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Encontrándose en el domicilio de ella, el agresor le propina 40 puñaladas en cuello, abdomen y tórax. Luego él intenta quitarse la vida, pero sobrevive. La madre del femicida hace la denuncia.</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Arma blanca</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Ex pareja</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Álvaro Ignacio Aravena Rosas</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Según personas cercanas, Gabriela habría terminado la relación hace un mes y él la hostigaba con mensajes amenazantes</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>45414.0</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Matías Montero</t>
+        </is>
+      </c>
+      <c r="AG21" t="inlineStr">
+        <is>
+          <t>https://www.soychile.cl/osorno/policial/2024/05/02/858390/informe-confirma-victima-femicidio-punaladas.html</t>
+        </is>
+      </c>
+      <c r="AH21" t="inlineStr">
+        <is>
+          <t>https://www.soychile.cl/osorno/policial/2024/04/30/858177/identifican-victima-femicidio-osorno.html</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>45441.0</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>Cabo De Hornos</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2024-05-21</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Melipilla</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Marie Souerette Desort</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Haitiana</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Fue encontrada junto a su hijo de 5 años en el lugar donde vivían, donde su ex pareja les quito la vida y posteriormente incendio el lugar. El femicida contaba con una orden de alejamiento la cual habría incumplido.</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Incendio</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Ex pareja</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Haitiano</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Contaba con orden de alejamiento</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Medida cautelar</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>45436.0</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AG22" t="inlineStr">
+        <is>
+          <t>https://www.emol.com/noticias/Nacional/2024/05/22/1131498/alcalde-alhue-conmocion-femicidio-homicidio.html</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>45441.0</t>
+        </is>
+      </c>
+      <c r="AM22" t="inlineStr">
+        <is>
+          <t>Cabrero</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2024-05-22</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Temuco</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Lohy Grey Sazo Espinoza</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>El cuerpo de la víctima fue hallado colgado, creyendo que era un suicidio pero la investigación dio cuenta que se trataba de un femicidio, tenía 3 hijos y estaba embarazada</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Ex pareja</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Pablo Alberto Leighton Tiznado</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aborto violento</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>45436.0</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>Juzgado de Garantía de Temuco</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>https://www.adnradio.cl/2024/05/24/hombre-es-detenido-por-femicidio-en-temuco-intento-fingir-el-suicidio-de-su-pareja-embarazada/</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>https://www.antofagasta.cl/regiones/temuco-detienen-sujeto-femicidio-pareja</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>45441.0</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>Calama</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2024-05-29</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Santiago</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Yeksiris Borges Zambrano</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Venezolana</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Durante la mañana llega un sujeto a la comisaria a entregarse debido a que había matado a su conviviente, al interior del departamento donde vivían.</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Asfixia</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Medios no informan</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Venezolano</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>45411.0</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Felipe Olivari</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>https://www.t13.cl/noticia/nacional/investigan-femicidio-al-interior-departamento-centro-santiago-29-5-2024</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-metropolitana/2024/05/29/sujeto-confiesa-que-mato-a-su-pareja-en-departamento-de-santiago-victima-habria-muerto-por-asfixia.shtml</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>45442.0</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>Calbuco</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2024-07-03</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>La Serena</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Camila Rojas Ayala</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Manicurista</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>A las 4 de la mañana el sujeto entra a la casa de Camila para atacar a su hija de 5 años, Camila la defiende y el agresor le propina 97 puñaladas lo que le ocasiona la muerte. La menor quedo con heridas ya que también fue atacada.</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Arma blanca</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Vecino</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Femicidio no íntimo</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Fransico Novoa</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>El agresor cuenta con antecedentes penales por hurto</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Homicidio calificado consumado</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Homicidio frustado</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>45482.0</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>Fiscalia de La Serena</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Carlos Vidal</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>45482.0</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>Caldera</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2024-07-16</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Florida</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Bio Bio</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Daniela Olate</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>La vícitima se sube al auto del femicida luego de que este se ofreciera a llevarla a Concepción, ante la negativa por parte de Daniela a las insinuaciones sexuales por parte del agresor, él la apuñala, la lleva hasta un barranco y continua apuñalandola para arrojarla por un barranco.</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Arma blanca</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Desconocido</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Femicidio no íntimo</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>José Morales</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>45497.0</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>Juzgado de Letras y Garantías de Florida</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>Carla Hernandez</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-del-bio-bio/2024/07/24/apunalada-y-lanzada-a-un-barranco-la-cronologia-del-crimen-de-daniela-olate-que-conmociona-al-bio-bio.shtml</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>45497.0</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>Calera De Tango</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2024-08-04</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Victoria</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Jennifer Danitza Carrillo Sandoval</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>La pareja convivía hace tres meses en el lugar, donde el agresor ataca a la víctima con un hacha y un cuchillo. Posteriormente el agresor de suicida con una escopeta.</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Hacha</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>Iván Cabezas Poblete</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>El agresor contaba con antecedentes penales incluyendo una condena por homicidio cumplida hace pocos años</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>https://lasnoticiasdemalleco.cl/policial/femicidio-y-posterior-suicidio-sacude-el-pacifico-domingo-en-victoria/</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>https://www.clave9.cl/2024/08/05/brutal-crimen-y-suicidio-estremece-a-victoria/</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>45510.0</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>Calle Larga</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2024-08-12</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Claudia Salas Gárate</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>Camarones</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2024-08-27</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Linares</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>María Eugenia Paz</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Boliviana</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>El agresor la ataca con con martillo dejándola con lesiones de gravedad el 18 de agosto, lo que le causa la muerte el día 27 de agosto</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Golpes</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>Alfonso Zavala</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Boliviano</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>https://www.septimapaginanoticias.cl/femicidio-en-linares-confirman-muerte-de-mujer-boliviana-que-fue-agredida-con-un-martillo-por-su-pareja</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>https://radiofmmas.cl/femicidio-en-linares-maria-eugenia-paz-la-victima-numero-27-del-ano-en-chile/?amp=1</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>Camiña</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2024-09-05</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Coronel</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Bio Bio</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Nicole Andrea Breve Neira</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Fue asesinada en el sector de Playa Negra, donde la llevo el agresor a la fuerza, en el lugar la viola y posteriormente la golpea con un objeto contundente y propinarle patadas y golpes</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Golpes</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Ex Pareja</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Luciano Reyes Jara</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>https://www.adnradio.cl/2024/09/07/mujer-fue-violada-y-asesinada-por-su-expareja-en-coronel/</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>45565.0</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>Canela</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2024-09-09</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Angol</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Constanza Herrera</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Luego de una discusión el agresor la asfixia con un cable e intenta hacer pasar el asesinato como un suicidio</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Asfixia</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Pololo</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>S.E.T.O</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Roberto Garrido</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>https://uatv.cl/2024/09/10/adolescente-de-17-anos-fue-asesinada-en-angol-y-el-autor-del-femicidio-seria-su-pololo/</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>Cañete</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2024-09-18</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Pedro Aguirre Cerda</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Dania Correa Chacano</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Su padre la habría ahorcado posterior a una discusión y se da la fuga luego de confesar el asesinato a una de sus otras hijas por mensaje de whatsapp</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Asfixia</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Padre</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Femicidio no íntimo</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Pedri Alberto Correa Ambiado</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Había salido de la carcel a prinpcio de año tras cumplir una condena de alrededor de 27 años</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Parricidio</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>Prófugo</t>
+        </is>
+      </c>
+      <c r="AM32" t="inlineStr">
+        <is>
+          <t>Carahue</t>
         </is>
       </c>
     </row>

--- a/datos/femicidios_2024.xlsx
+++ b/datos/femicidios_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AX32"/>
+  <dimension ref="A1:AX47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3143,6 +3143,11 @@
           <t>45441.0</t>
         </is>
       </c>
+      <c r="AM18" t="inlineStr">
+        <is>
+          <t>Buin</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -4388,6 +4393,11 @@
           <t>2024-08-12</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Buin</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
           <t>Metropolitana</t>
@@ -4765,112 +4775,1778 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>2024-09-14</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Cerrillos</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Yurlay Jaspe Díaz</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Venezolana</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>En un principio se había investigado como un robo, ya que había sido atacada tras bajar del transporte público por un supuesto delicuente que quería robarle el celular. Avanzada la investigación se supó que el autor del crímen era su ex pareja quien había intentado crear una coartada.</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Arma blanca</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Ex Pareja</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>Ykfugklerin Albert Hernández Torrealba</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Venezolano</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Sin información</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>45574.0</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AG32" t="inlineStr">
+        <is>
+          <t>https://www.publimetro.cl/noticias/2024/10/09/vuelco-en-crimen-de-venezolana-apunalda-en-cerrillos-la-mato-su-expareja-y-simulo-un-robo/</t>
+        </is>
+      </c>
+      <c r="AH32" t="inlineStr">
+        <is>
+          <t>https://www.threads.net/@mileschile/post/DA_VFXZuajC</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>45579.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
           <t>2024-09-18</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>Pedro Aguirre Cerda</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Metropolitana</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Dania Correa Chacano</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>24.0</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Chilena</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>Su padre la habría ahorcado posterior a una discusión y se da la fuga luego de confesar el asesinato a una de sus otras hijas por mensaje de whatsapp</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>Asfixia</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>Sin información</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>Padre</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>Femicidio no íntimo</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>Pedri Alberto Correa Ambiado</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>60.0</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>Chileno</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
         <is>
           <t>Si</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>Había salido de la carcel a prinpcio de año tras cumplir una condena de alrededor de 27 años</t>
         </is>
       </c>
-      <c r="U32" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>Sin información</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr">
+      <c r="W33" t="inlineStr">
         <is>
           <t>Parricidio</t>
         </is>
       </c>
-      <c r="Y32" t="inlineStr">
+      <c r="Y33" t="inlineStr">
         <is>
           <t>En curso</t>
         </is>
       </c>
-      <c r="AA32" t="inlineStr">
+      <c r="AA33" t="inlineStr">
         <is>
           <t>Prófugo</t>
         </is>
       </c>
-      <c r="AM32" t="inlineStr">
+      <c r="AM33" t="inlineStr">
         <is>
           <t>Carahue</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2024-09-21</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>La Serena</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Rose Mary Bravo Bravo</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Se considera en los medios como una caída accidental desde un ventanal de 3 metros de altura, hay una investigación en curso sin mayor información ni estableciendo responsabilidades en terceros. La familia y vecinos responsabilizan a la que era su pareja actual de haberla maltratado constantemente y haberse dado a la fuga luego de asesinarla.</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Raúl Enrique Vargas Yáñez</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>Prófugo</t>
+        </is>
+      </c>
+      <c r="AG34" t="inlineStr">
+        <is>
+          <t>https://web.facebook.com/groups/704352182943453/posts/8857341317644458</t>
+        </is>
+      </c>
+      <c r="AH34" t="inlineStr">
+        <is>
+          <t>https://www.diarioeldia.cl/noticias/2024/09/21/122758-mujer-fallece-traer-caer-desde-un-ventanal-en-la-parte-alta-de-coquimbo</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>45573.0</t>
+        </is>
+      </c>
+      <c r="AM34" t="inlineStr">
+        <is>
+          <t>Cartagena</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2024-10-12</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Valparaíso</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Valparaíso</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Medios no informan</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Mujer postrada es asesinada por su esposo, tras dispararle en la cabeza con un arma inscrita, posteriormente él se suicida.</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Arma de fuego</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>Medios no informan</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Ex suboficial de la Armada</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>Cristian Andrade</t>
+        </is>
+      </c>
+      <c r="AG35" t="inlineStr">
+        <is>
+          <t>https://www.emol.com/noticias/Nacional/2024/10/12/1145376/hombre-mata-esposa-suicida-valparaiso.html</t>
+        </is>
+      </c>
+      <c r="AM35" t="inlineStr">
+        <is>
+          <t>Casablanca</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2024-10-31</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>El Quisco</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Valparaíso</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Yessenia Edith Ibarra Contreras</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Convivientes estuvieron bebiendo alcohol y luego de una discusión el hombre toma un cuchillo y la apuñala en el cuello. Vecinos encontraron a la mujer engsangrentada quien falleció a los pocos minutos. El hombre se había dado a la fuga y luego fue capturado por Carabineros</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Arma blanca</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Francisco Javier Aránguiz Silva</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Según fuentes de prensa, vecinos señalan que discusiones y peleas eran frecuentes entre los convivientes.</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Femicidio consumado</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>San Antonio</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Osvaldo Ossandón</t>
+        </is>
+      </c>
+      <c r="AG36" t="inlineStr">
+        <is>
+          <t>https://puranoticia.pnt.cl/regiones/femicidio-en-el-quisco-hombre-mato-a-su-pareja-durante-discusion-tras</t>
+        </is>
+      </c>
+      <c r="AH36" t="inlineStr">
+        <is>
+          <t>https://www.soychile.cl/san-antonio/sociedad/2024/11/01/882739/asesinan-madre-hijos-quisco-pareja.html</t>
+        </is>
+      </c>
+      <c r="AI36" t="inlineStr">
+        <is>
+          <t>https://www.meganoticias.cl/nacional/464489-yessenia-ibarra-contreras-asesinato-el-quisco-madre-pdp-4-11-2024.html</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>45603.0</t>
+        </is>
+      </c>
+      <c r="AM36" t="inlineStr">
+        <is>
+          <t>Castro</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Los Ángeles</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Bio Bio</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Carola del Carmen Loyola Torres</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Apuñalada por su ex pareja en el cuello, toraz y abdomen hasta causarle la muerte. Los hechos ocurrieron frente a un liceo en Los Ángeles. El femicida arranca del lugar para luego entregarse en una comisaria. Se habían separado hace tres semanas y ella iba a una entrevista de trabajo.</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Arma blanca</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Ex Pareja</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Marcelo Fonseca Anabalón</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Fueron pareja durante 30 años, ella en el 2023 había presentando una denuncia por VIF</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Denuncia</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AG37" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-del-bio-bio/2024/11/11/fueron-pareja-cerca-de-30-anos-decretan-prision-preventiva-para-imputado-por-femicidio-en-los-angeles.shtml</t>
+        </is>
+      </c>
+      <c r="AH37" t="inlineStr">
+        <is>
+          <t>https://www.latribuna.cl/policial/2024/11/09/cronologia-de-un-femicidio-que-remecio-a-la-comunidad-de-los-angeles.html</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>45607.0</t>
+        </is>
+      </c>
+      <c r="AM37" t="inlineStr">
+        <is>
+          <t>Catemu</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2024-11-10</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ancud</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Los Lagos</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Soledad Pichaud</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Muere al caer a un roquerio, su familia sospecha de un femicidio ya que se encontraba junto a su pareja en el momento de la caída. Familiares señalaron que existieron hechos de violencia en el pololeo pero no habían sido denunciados.</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Caída de altura</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>Francisco Javier Torres Velásquez</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Famlia señala qie existio violencia en el pololeo</t>
+        </is>
+      </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Fernando Metzner</t>
+        </is>
+      </c>
+      <c r="AG38" t="inlineStr">
+        <is>
+          <t>https://cooperativa.cl/noticias/pais/region-de-los-lagos/ancud-joven-murio-al-caer-a-un-roquerio-y-su-familia-sospecha-un/2024-11-10/154134.html</t>
+        </is>
+      </c>
+      <c r="AH38" t="inlineStr">
+        <is>
+          <t>https://www.t13.cl/noticia/nacional/joven-muere-balneario-ancud-familia-denuncia-fue-victima-femicidio-10-11-2024</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>45607.0</t>
+        </is>
+      </c>
+      <c r="AL38" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="AM38" t="inlineStr">
+        <is>
+          <t>Antofagasta</t>
+        </is>
+      </c>
+      <c r="AN38" t="inlineStr">
+        <is>
+          <t>Golpes y asfixia</t>
+        </is>
+      </c>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Inglesa</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Ingles</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2024-11-11</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Vallenar</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Atacama</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Camila Alexandra Vaitiare Jopia Reinuaba</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Fue asesinada por su ex pareja y luego lanzo su cuerpo a un canal de regadio</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Indeterminada</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Ex pareja</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Raúl Contreras Jeraldo</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="AG39" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/photo/?fbid=972853164876828&amp;set=pb.100064564604898.-2207520000&amp;locale=tr_TR</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>45615.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2024-11-17</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Lautaro</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Cecilia Guevilao Astete</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Cecilia es agredida por su pareja con un objeto cortopunzante, lo que le causa la muerte. El agresor se da a la fuga y es encontrado más tarde por Carabineros gracias a la difusión de la información por parte de familiares y vecinos.</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Arma blanca</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>Dante Rubilar Huaiquimil</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Enrique Vasquez</t>
+        </is>
+      </c>
+      <c r="AG40" t="inlineStr">
+        <is>
+          <t>https://araucaniadiario.cl/contenido/26592/nuevo-femicidio-en-lautaro-sujeto-ya-fue-capturado</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Teno</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Maule</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Rosa Cubillo Cabello</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Hombre dispara con escopeta a su esposa, quien para pedir ayuda sale a la vía pública, falleciendo a escasos metros de su vivienda en el sector Morza, en Teno. El hombre ingresa al domicilio y percuta un disparo con la intención de acabar con su vida, pero es encontrado con signos vitales</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Arma de fuego</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>José Azócar Moreno</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>Tatiana Díaz</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>https://www.latercera.com/nacional/noticia/femicidio-en-teno-adulto-mayor-disparo-a-su-pareja-y-luego-intento-quitarse-la-vida/QKSVRCAY6VB7PPQ2SQDNL3KXVY/</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>https://cooperativa.cl/noticias/pais/policial/femicidio/teno-hombre-mato-de-un-disparo-de-escopeta-a-su-conviviente-e-intento/2024-11-19/084741.html</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>45615.0</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>Cerrillos</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2024-11-18</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>San Ignacio</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Ñuble</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Medios no informan</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>El agresor infringe la prohibición de acercarse a la victima, a la que ataca con un cuchillo en el antejardin de su casa, era su ex pareja y tenían una hija en común.</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Arma blanca</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Ex pareja</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>Gabriel Antonio Ortiz Rubilar</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Existía una prohibición de acercarse a la víctima</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Medida cautelar</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>45618.0</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>Pablo Acevedo Cifuentes</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>1.835-2024</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>https://www.ladiscusion.cl/en-prision-preventiva-queda-imputado-por-femicidio-en-san-ignacio/</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>https://www.pjud.cl/prensa-y-comunicaciones/noticias-del-poder-judicial/118075</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>45632.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2024-11-22</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Las Condes</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Metropolitana</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Jenny Navas Angulo</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Periodista</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>El agresor fue formalizado el pasado lunes por delitos de abuso y violación, quedo con arresto domiciliario total</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Ex pareja</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>Medios no informan</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>Violación</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>https://www.adnradio.cl/2024/11/28/quien-era-jenny-navas-el-brutal-crimen-de-destacada-periodista-que-es-investigado-como-femicidio/</t>
+        </is>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>https://www.chilevision.cl/noticias/nacional/quien-fue-jenny-navas-la-destacada-periodista-crimen-femicidio</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>45624.0</t>
+        </is>
+      </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>Chañaral</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Temuco</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>La Araucanía</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Karla Belén Huaiquián</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>estudiante de enseñanza media</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Su hermana la deja en un furgón que la trasladó desde Lautaro hasta Temuco, saliendo del liceo Jorge Teillier se le perdió el rastro. Apareció su cuerpo en el Río Cautín. Se maneja la hipótesis de secuestro, pues su hermana la llamó para saber donde estaba y le indicó que estaba secuestrada en Temuco.</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Homicidio</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>Secuestro</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>Lautaro Vásquez</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>https://www.24horas.cl/regiones/zona-sur/araucania/homicidio-de-karla-huaiquian-el-ultimo-llamado-de-adolescente-temuco</t>
+        </is>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>https://araucaniadiario.cl/contenido/26690/adolescente-extraviada-en-lautaro-es-encontrada-muerta-en-la-ribera-del-rio-caut</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>https://noticiasdelsur.cl/me-secuestraron-el-enigma-y-que-se-sabe-del-crimen-de-karla-huaiquian/?amp=1</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>45622.0</t>
+        </is>
+      </c>
+      <c r="AM44" t="inlineStr">
+        <is>
+          <t>Cerro Navia</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Chépica</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>O’Higgins</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Julia del Carmen Navarro Corrales</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Durante el día martes 26 en la tarde llega el femicida a la casa de su ex pareja, quien también era tu vecina y con una escopeta le dispara. Posteriormente el agresor se suicida.</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Arma de fuego</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Ex pareja</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abel del Carmen Peñaloza Bahamondes
+</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>No hay denuncias de violencia formales pero famliares señalan que existian antecedentes históricos de situaciones de violencia</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>Felipe Molina</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>https://eltipografo.cl/2024/11/femicidio-en-ohiggins-hombre-mata-a-su-expareja-y-luego-se-quita-la-vida-en-chepica</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>45623.0</t>
+        </is>
+      </c>
+      <c r="AM45" t="inlineStr">
+        <is>
+          <t>Chaitén</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>2024-11-26</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovalle</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Coquimbo</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Catherin Shaaron Herrera Bahamondes</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>La pareja tenía tres hijos en común, de 1, 11 y 13 años. La mayor de las hijas salió a pedir ayuda a los vecinos quienes llamaron a carabineros. Finalmente el agresor mata a su pareja estrangulandola.</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Asfixia</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Pareja</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Femicidio íntimo</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>Juan Castro Berger</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>No existían denuncias previas pero vecinos del sector dieron cuenta de que las peleas eran recurrentes</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Femicidio</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>Rodrigo Gómez</t>
+        </is>
+      </c>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>https://www.diarioeldia.cl/noticias/2024/11/26/123800-femicidio-en-ovalle-hombre-estrangula-a-su-pareja-e-hija-en-comun-alerta-a-los-vecinos</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>45624.0</t>
+        </is>
+      </c>
+      <c r="AM46" t="inlineStr">
+        <is>
+          <t>Chanco</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>2024-11-28</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Valdivia</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Los Ríos</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Nicole Aranzave</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Chilena</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Nicole se quito la vida debido al maltrato habital y violencia intrafamiliar que vivía por parte de su ex pareja, tenía seis meses de embarazo y tres hijos</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Ex pareja</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Suicidio femicida</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Alex Leal Risco</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Chileno</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Hace tres días habían terminado la relación y ella lo había denunciado por VIF</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Denuncia</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Si</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Suicidio femicida</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>Maltrato habitual y femicidio frustrado</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>En curso</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>45628.0</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>Prisión preventiva</t>
+        </is>
+      </c>
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t>https://www.adnradio.cl/2024/12/02/formalizan-a-conviviente-por-suicidio-femicida-en-valdivia-bajo-la-ley-antonia-mujer-estaba-embarazada/</t>
+        </is>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>https://www.biobiochile.cl/noticias/nacional/region-de-los-rios/2024/12/02/conviviente-de-embarazada-hallada-muerta-en-niebla-queda-en-prision-preventiva-por-suicidio-femicida.shtml</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>45628.0</t>
         </is>
       </c>
     </row>
